--- a/biology/Médecine/Hôpital_de_Verdun/Hôpital_de_Verdun.xlsx
+++ b/biology/Médecine/Hôpital_de_Verdun/Hôpital_de_Verdun.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Verdun</t>
+          <t>Hôpital_de_Verdun</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Hôpital de Verdun (anciennement: Hôpital général du Christ-Roi-de-Verdun) est un hôpital public situé dans l'arrondissement de Verdun à Montréal, au Québec. Il fait partie du CIUSSS du Centre-Sud-de-l’Île-de-Montréal.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Verdun</t>
+          <t>Hôpital_de_Verdun</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,16 +526,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Construction
-C'est le curé de la paroisse de Notre-Dame-des-Sept-Douleurs Joseph-Arsène Richard, né dans une famille acadienne[1], qui fait pression sur le gouvernement pour la construction d'un nouvel hôpital à Verdun[2]. Il s’engage, aux noms de ses paroissiens, à verser 100 000 $, par tranche de 10 000 $ par année, pour favoriser l’établissement de l’institution jusqu'en 1936[2].
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est le curé de la paroisse de Notre-Dame-des-Sept-Douleurs Joseph-Arsène Richard, né dans une famille acadienne, qui fait pression sur le gouvernement pour la construction d'un nouvel hôpital à Verdun. Il s’engage, aux noms de ses paroissiens, à verser 100 000 $, par tranche de 10 000 $ par année, pour favoriser l’établissement de l’institution jusqu'en 1936.
 Le gouvernement du Québec incorpore l'Hôpital du Christ-Roi de Verdun en 1928. En 1930, le gouvernement octroie 300 000$ pour commencer la construction de l'Hôpital.
 C'est l'architecte Alphonse Venne, qui se spécialise dans la conception d'édifices pour le clergé et les communautés religieuses à Montréal, qui dessine les plans de l’hôpital inspiré du style Art déco. La construction est réalisé par l'entreprise Ulric Boileau et Cie.
-L'Hôpital est complété en 1932[3] pour la somme de 538 000$[2]. À l'époque, la ville de Verdun remet un financement annuel récurrent de 15 000$ pour le maintien d'une clinique pour les défavorisés[2].
-Sous la gestion des Sœurs de la Providence
-Vers 1933, les effets de la Grande dépression mettent l'hôpital en difficultés financières. Le maire de Verdun, Hervé Ferland, offre un octroi de 150 000 $ à l'hôpital à condition que l'institution soit transférée aux Sœurs de la Providence de Montréal[2]. L'hôpital compte 240 lits en 1939[4].
-En 1946, l’école des infirmières ouvre ses portes à proximité de l’Hôpital avec ses cinq étages et plus de 200 lits[2].
-Un hôpital laïc et public à Verdun
-Les Sœurs de la Providence concluent une entente pour la vente de l’hôpital au gouvernement du Québec en décembre 1973 pour la somme de 762 843$, moins la dette de 554 900$ des Sœurs envers le gouvernement[2]. De nouvelles lettres patentes sont émises en décembre 1974; l'hôpital est désormais laïc et public[2].
+L'Hôpital est complété en 1932 pour la somme de 538 000$. À l'époque, la ville de Verdun remet un financement annuel récurrent de 15 000$ pour le maintien d'une clinique pour les défavorisés.
 </t>
         </is>
       </c>
@@ -534,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_Verdun</t>
+          <t>Hôpital_de_Verdun</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -549,14 +561,126 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous la gestion des Sœurs de la Providence</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vers 1933, les effets de la Grande dépression mettent l'hôpital en difficultés financières. Le maire de Verdun, Hervé Ferland, offre un octroi de 150 000 $ à l'hôpital à condition que l'institution soit transférée aux Sœurs de la Providence de Montréal. L'hôpital compte 240 lits en 1939.
+En 1946, l’école des infirmières ouvre ses portes à proximité de l’Hôpital avec ses cinq étages et plus de 200 lits.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hôpital_de_Verdun</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_Verdun</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Un hôpital laïc et public à Verdun</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Sœurs de la Providence concluent une entente pour la vente de l’hôpital au gouvernement du Québec en décembre 1973 pour la somme de 762 843$, moins la dette de 554 900$ des Sœurs envers le gouvernement. De nouvelles lettres patentes sont émises en décembre 1974; l'hôpital est désormais laïc et public.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hôpital_de_Verdun</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_Verdun</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>L’hôpital</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'Hôpital de Verdun compte aujourd'hui 244 lits et 1600 employés. En plus de la médecine générale, plusieurs services spécialisés y sont dispensés, entre autres la cardiologie, la pneumologie, la neurologie et la chirurgie générale et orthopédique[5].
-Directeurs généraux
-1932-???? - Victor Bougie
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Hôpital de Verdun compte aujourd'hui 244 lits et 1600 employés. En plus de la médecine générale, plusieurs services spécialisés y sont dispensés, entre autres la cardiologie, la pneumologie, la neurologie et la chirurgie générale et orthopédique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hôpital_de_Verdun</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%B4pital_de_Verdun</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>L’hôpital</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Directeurs généraux</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1932-???? - Victor Bougie
 1950-1972 - Dr Eugène Thibault
 1982-1992 - David Levine</t>
         </is>
